--- a/biology/Botanique/Chenopodium_rubrum/Chenopodium_rubrum.xlsx
+++ b/biology/Botanique/Chenopodium_rubrum/Chenopodium_rubrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chenopodium rubrum est une espèce de plante herbacée de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981)[1], mais de la famille des Amaranthaceae selon la classification phylogénétique APG III (2009)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chenopodium rubrum est une espèce de plante herbacée de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981), mais de la famille des Amaranthaceae selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Oxybasis rubra (L.) S.Fuentes, Uotila &amp; Borsch, 2012</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France l'espèce est évaluée comme non préoccupante[3]. Toutefois elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Lorraine, Alsace, Limousin et Bourgogne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France l'espèce est évaluée comme non préoccupante. Toutefois elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Lorraine, Alsace, Limousin et Bourgogne.
 </t>
         </is>
       </c>
